--- a/EjerciciosFinanzas.xlsx
+++ b/EjerciciosFinanzas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cperezme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cperezme\Documents\GitHub\PracticasFinanzas01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,8 +609,7 @@
       <c r="C5">
         <v>1120</v>
       </c>
-      <c r="D5">
-        <f>C5-B5</f>
+      <c r="E5">
         <v>320</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -627,7 +626,7 @@
       <c r="C6">
         <v>730</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -694,7 +693,7 @@
       </c>
       <c r="K10">
         <f>SUM(D4:D6,D12)</f>
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -735,7 +734,7 @@
       <c r="C12">
         <v>960</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>210</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -840,11 +839,11 @@
       </c>
       <c r="D19">
         <f>SUM(D4:D18)</f>
-        <v>990</v>
+        <v>930</v>
       </c>
       <c r="E19">
         <f>SUM(E4:E18)</f>
-        <v>870</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/EjerciciosFinanzas.xlsx
+++ b/EjerciciosFinanzas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="6060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 01" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t>Balance General</t>
   </si>
@@ -172,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -202,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,14 +538,15 @@
     <col min="6" max="6" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -561,7 +569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,7 +584,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -599,7 +607,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -616,7 +624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -641,7 +649,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,7 +666,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -676,7 +684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -687,44 +695,14 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <f>SUM(D4:D6,D12)</f>
-        <v>330</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10">
-        <f>SUM(E8,E13)</f>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <f>SUM(D15,D18)</f>
-        <v>600</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <f>SUM(E8)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -741,7 +719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -759,7 +737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -770,7 +748,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -787,7 +765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -843,6 +821,48 @@
       </c>
       <c r="E19">
         <f>SUM(E4:E18)</f>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(D12,D6,D4)</f>
+        <v>330</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5">
+        <f>SUM(E5,E13)</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUM(D15,D18)</f>
+        <v>600</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="5">
+        <f>SUM(E8)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>SUM(C22:C23)</f>
+        <v>930</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E22:E23)</f>
         <v>930</v>
       </c>
     </row>
@@ -858,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I3" sqref="I3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,14 +889,15 @@
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -899,14 +920,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -916,8 +945,21 @@
       <c r="C4" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -927,8 +969,15 @@
       <c r="C5" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -938,8 +987,23 @@
       <c r="C6" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>C6-B6</f>
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +1013,14 @@
       <c r="C7" s="1">
         <v>375</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -961,7 +1031,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,18 +1042,18 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -993,8 +1063,15 @@
       <c r="C12" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>B12-C12</f>
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1004,8 +1081,12 @@
       <c r="C13" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>B13-C13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1015,8 +1096,12 @@
       <c r="C14" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>C14-B14</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1112,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1037,8 +1122,12 @@
       <c r="C16" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>C16-B16</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1048,8 +1137,12 @@
       <c r="C17" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>C17-B17</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1061,24 +1154,70 @@
       </c>
       <c r="D18">
         <f>SUM(D4:D17)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <f>SUM(E3:E17)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5">
+        <f>SUM(E11,E5,E3)</f>
         <v>0</v>
       </c>
+      <c r="E21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="5">
+        <f>SUM(F4,F12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5">
+        <f>SUM(E14,E17)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5">
+        <f>SUM(F7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>SUM(D21:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F21:F22)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="J6:L7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,14 +1225,15 @@
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1116,14 +1256,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1133,8 +1281,14 @@
       <c r="C4" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1299,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1155,8 +1309,16 @@
       <c r="C6" s="2">
         <v>1100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1166,8 +1328,14 @@
       <c r="C7" s="1">
         <v>2950</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1346,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1189,18 +1357,18 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1211,7 +1379,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1390,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1412,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1286,6 +1454,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="J6:L7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EjerciciosFinanzas.xlsx
+++ b/EjerciciosFinanzas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="6060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 01" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>Balance General</t>
   </si>
@@ -205,10 +205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,11 +578,11 @@
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -603,9 +603,9 @@
       <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -643,11 +643,11 @@
       <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -662,9 +662,9 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -825,33 +825,33 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f>SUM(D12,D6,D4)</f>
         <v>330</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f>SUM(E5,E13)</f>
         <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f>SUM(D15,D18)</f>
         <v>600</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f>SUM(E8)</f>
         <v>500</v>
       </c>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,11 +929,11 @@
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -955,9 +955,9 @@
       <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -997,11 +997,11 @@
       <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1016,9 +1016,9 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1067,7 +1067,7 @@
         <f>B12-C12</f>
         <v>15</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1085,6 +1085,9 @@
         <f>B13-C13</f>
         <v>5</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1100,6 +1103,9 @@
         <f>C14-B14</f>
         <v>15</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1126,8 +1132,11 @@
         <f>C16-B16</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1141,8 +1150,11 @@
         <f>C17-B17</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1160,40 +1172,44 @@
         <f>SUM(E3:E17)</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="H18">
+        <f>D18-E18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f>SUM(E11,E5,E3)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f>SUM(F4,F12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f>SUM(E14,E17)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f>SUM(F7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23">
         <f>SUM(D21:D22)</f>
         <v>0</v>
@@ -1214,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:L7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,11 +1281,11 @@
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1281,12 +1297,19 @@
       <c r="C4" s="2">
         <v>450</v>
       </c>
+      <c r="E4">
+        <f>C4-B4</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1298,6 +1321,13 @@
       <c r="C5" s="2">
         <v>1400</v>
       </c>
+      <c r="E5">
+        <f>C5-B5</f>
+        <v>450</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1309,14 +1339,21 @@
       <c r="C6" s="2">
         <v>1100</v>
       </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1331,9 +1368,9 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1389,6 +1426,13 @@
       <c r="C13" s="2">
         <v>900</v>
       </c>
+      <c r="D13">
+        <f>C13-B13</f>
+        <v>250</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1400,6 +1444,12 @@
       <c r="C14" s="2">
         <v>100</v>
       </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1411,6 +1461,12 @@
       <c r="C15" s="2">
         <v>1500</v>
       </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1423,7 +1479,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1433,8 +1489,14 @@
       <c r="C17" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1446,11 +1508,52 @@
       </c>
       <c r="D18">
         <f>SUM(D3:D17)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E18">
         <f>SUM(E3:E17)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUM(D6,D13,D14)</f>
+        <v>350</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="4">
+        <f>SUM(E4,E5)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUM(D17,D15)</f>
+        <v>150</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(C21:C22)</f>
+        <v>500</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E21:E22)</f>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
